--- a/code_books/course_detail_codebook.xlsx
+++ b/code_books/course_detail_codebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Documents\DATA485\consulting-project-si-1\code_books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1FC9C5-D17B-4D74-BA3B-EC9AA09CFE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD1EDB5-D382-48AF-A038-B75038023610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codebook" sheetId="1" r:id="rId1"/>
@@ -5974,13 +5974,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5993,45 +5990,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6068,6 +6026,48 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6427,22 +6427,22 @@
       <selection pane="bottomLeft" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="28.625" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="29.83203125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="43.1640625" style="56" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="29.875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="43.125" style="56" customWidth="1"/>
+    <col min="7" max="7" width="17.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" style="56" customWidth="1"/>
-    <col min="9" max="9" width="26.6640625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="24" customWidth="1"/>
-    <col min="11" max="11" width="33.1640625" style="77" customWidth="1"/>
+    <col min="9" max="9" width="26.625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="33.125" style="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="39.5" thickBot="1">
+    <row r="1" spans="1:16" ht="39.75" thickBot="1">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="28.5" thickTop="1">
+    <row r="2" spans="1:16" ht="29.25" thickTop="1">
       <c r="A2" s="11"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -6505,7 +6505,7 @@
       <c r="O2" s="75"/>
       <c r="P2" s="76"/>
     </row>
-    <row r="3" spans="1:16" ht="42">
+    <row r="3" spans="1:16" ht="42.75">
       <c r="A3" s="11"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -6533,7 +6533,7 @@
       <c r="O3" s="75"/>
       <c r="P3" s="76"/>
     </row>
-    <row r="4" spans="1:16" ht="42">
+    <row r="4" spans="1:16" ht="42.75">
       <c r="A4" s="11"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6583,7 +6583,7 @@
       <c r="G5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="98" t="s">
+      <c r="H5" s="122" t="s">
         <v>1163</v>
       </c>
       <c r="I5" s="42"/>
@@ -6617,7 +6617,7 @@
       <c r="G6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="98"/>
+      <c r="H6" s="122"/>
       <c r="I6" s="42"/>
       <c r="J6" s="29"/>
       <c r="K6" s="78"/>
@@ -6644,7 +6644,7 @@
       <c r="G7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="98"/>
+      <c r="H7" s="122"/>
       <c r="I7" s="43"/>
       <c r="J7" s="29"/>
       <c r="K7" s="78"/>
@@ -6663,7 +6663,7 @@
       <c r="G8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="99"/>
+      <c r="H8" s="123"/>
       <c r="I8" s="30"/>
       <c r="J8" s="29"/>
       <c r="K8" s="78"/>
@@ -6691,7 +6691,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="42">
+    <row r="10" spans="1:16" ht="42.75">
       <c r="A10" s="11"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9" t="s">
@@ -6718,7 +6718,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="70">
+    <row r="11" spans="1:16" ht="71.25">
       <c r="A11" s="26" t="s">
         <v>35</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="15" customFormat="1" ht="28">
+    <row r="12" spans="1:16" s="15" customFormat="1" ht="29.25">
       <c r="A12" s="26" t="s">
         <v>35</v>
       </c>
@@ -6778,7 +6778,7 @@
       <c r="J12" s="29"/>
       <c r="K12" s="78"/>
     </row>
-    <row r="13" spans="1:16" ht="84">
+    <row r="13" spans="1:16" ht="85.5">
       <c r="A13" s="27" t="s">
         <v>45</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="84">
+    <row r="14" spans="1:16" ht="85.5">
       <c r="A14" s="27" t="s">
         <v>45</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="196">
+    <row r="15" spans="1:16" ht="199.5">
       <c r="A15" s="33" t="s">
         <v>50</v>
       </c>
@@ -6885,14 +6885,14 @@
       <c r="G16" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="100" t="s">
+      <c r="H16" s="98" t="s">
         <v>1141</v>
       </c>
       <c r="I16" s="30"/>
       <c r="J16" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="112" t="s">
+      <c r="K16" s="116" t="s">
         <v>1251</v>
       </c>
     </row>
@@ -6910,12 +6910,12 @@
       <c r="G17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="108"/>
+      <c r="H17" s="99"/>
       <c r="I17" s="30"/>
       <c r="J17" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="113"/>
+      <c r="K17" s="117"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="11"/>
@@ -6931,12 +6931,12 @@
       <c r="G18" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="108"/>
+      <c r="H18" s="99"/>
       <c r="I18" s="30"/>
       <c r="J18" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="113"/>
+      <c r="K18" s="117"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="11"/>
@@ -6952,12 +6952,12 @@
       <c r="G19" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="108"/>
+      <c r="H19" s="99"/>
       <c r="I19" s="30"/>
       <c r="J19" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="113"/>
+      <c r="K19" s="117"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="11"/>
@@ -6973,12 +6973,12 @@
       <c r="G20" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="108"/>
+      <c r="H20" s="99"/>
       <c r="I20" s="30"/>
       <c r="J20" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="K20" s="113"/>
+      <c r="K20" s="117"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="11"/>
@@ -6994,12 +6994,12 @@
       <c r="G21" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="108"/>
+      <c r="H21" s="99"/>
       <c r="I21" s="30"/>
       <c r="J21" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="K21" s="113"/>
+      <c r="K21" s="117"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="11"/>
@@ -7015,12 +7015,12 @@
       <c r="G22" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="108"/>
+      <c r="H22" s="99"/>
       <c r="I22" s="30"/>
       <c r="J22" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="K22" s="113"/>
+      <c r="K22" s="117"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="11"/>
@@ -7036,12 +7036,12 @@
       <c r="G23" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="108"/>
+      <c r="H23" s="99"/>
       <c r="I23" s="30"/>
       <c r="J23" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="113"/>
+      <c r="K23" s="117"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="11"/>
@@ -7057,12 +7057,12 @@
       <c r="G24" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="108"/>
+      <c r="H24" s="99"/>
       <c r="I24" s="30"/>
       <c r="J24" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="113"/>
+      <c r="K24" s="117"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="11"/>
@@ -7078,12 +7078,12 @@
       <c r="G25" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="108"/>
+      <c r="H25" s="99"/>
       <c r="I25" s="30"/>
       <c r="J25" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="113"/>
+      <c r="K25" s="117"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="11"/>
@@ -7099,12 +7099,12 @@
       <c r="G26" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="108"/>
+      <c r="H26" s="99"/>
       <c r="I26" s="30"/>
       <c r="J26" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="K26" s="113"/>
+      <c r="K26" s="117"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="11"/>
@@ -7120,12 +7120,12 @@
       <c r="G27" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="108"/>
+      <c r="H27" s="99"/>
       <c r="I27" s="30"/>
       <c r="J27" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="K27" s="113"/>
+      <c r="K27" s="117"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="11"/>
@@ -7141,14 +7141,14 @@
       <c r="G28" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="101"/>
+      <c r="H28" s="100"/>
       <c r="I28" s="30"/>
       <c r="J28" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="K28" s="114"/>
-    </row>
-    <row r="29" spans="1:11" ht="84">
+      <c r="K28" s="118"/>
+    </row>
+    <row r="29" spans="1:11" ht="85.5">
       <c r="A29" s="26" t="s">
         <v>70</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="28">
+    <row r="31" spans="1:11" ht="28.5">
       <c r="A31" s="27" t="s">
         <v>81</v>
       </c>
@@ -7258,7 +7258,7 @@
       <c r="J32" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="K32" s="112" t="s">
+      <c r="K32" s="116" t="s">
         <v>1251</v>
       </c>
     </row>
@@ -7283,7 +7283,7 @@
       <c r="J33" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="K33" s="113"/>
+      <c r="K33" s="117"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="65" t="s">
@@ -7306,7 +7306,7 @@
       <c r="J34" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="K34" s="113"/>
+      <c r="K34" s="117"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="65" t="s">
@@ -7329,7 +7329,7 @@
       <c r="J35" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="K35" s="113"/>
+      <c r="K35" s="117"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="65" t="s">
@@ -7352,9 +7352,9 @@
       <c r="J36" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="K36" s="114"/>
-    </row>
-    <row r="37" spans="1:11" ht="140">
+      <c r="K36" s="118"/>
+    </row>
+    <row r="37" spans="1:11" ht="142.5">
       <c r="A37" s="27" t="s">
         <v>98</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="28">
+    <row r="39" spans="1:11" ht="28.5">
       <c r="A39" s="40" t="s">
         <v>104</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="28">
+    <row r="40" spans="1:11" ht="28.5">
       <c r="A40" s="40" t="s">
         <v>110</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="28">
+    <row r="43" spans="1:11" ht="28.5">
       <c r="A43" s="40" t="s">
         <v>119</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="28">
+    <row r="44" spans="1:11" ht="28.5">
       <c r="A44" s="40" t="s">
         <v>122</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="28">
+    <row r="45" spans="1:11" ht="28.5">
       <c r="A45" s="40" t="s">
         <v>125</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="28">
+    <row r="46" spans="1:11" ht="28.5">
       <c r="A46" s="40" t="s">
         <v>128</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="70">
+    <row r="47" spans="1:11" ht="71.25">
       <c r="A47" s="40" t="s">
         <v>131</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="28">
+    <row r="48" spans="1:11" ht="28.5">
       <c r="A48" s="40" t="s">
         <v>134</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="28">
+    <row r="49" spans="1:11" ht="28.5">
       <c r="A49" s="40" t="s">
         <v>137</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="28">
+    <row r="50" spans="1:11" ht="28.5">
       <c r="A50" s="40" t="s">
         <v>140</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="28">
+    <row r="51" spans="1:11" ht="28.5">
       <c r="A51" s="40" t="s">
         <v>143</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="28">
+    <row r="52" spans="1:11" ht="28.5">
       <c r="A52" s="40" t="s">
         <v>146</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="42">
+    <row r="53" spans="1:11" ht="42.75">
       <c r="A53" s="40" t="s">
         <v>149</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="42">
+    <row r="54" spans="1:11" ht="42.75">
       <c r="A54" s="40" t="s">
         <v>152</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="28">
+    <row r="55" spans="1:11" ht="28.5">
       <c r="A55" s="40" t="s">
         <v>155</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="56">
+    <row r="56" spans="1:11" ht="57">
       <c r="A56" s="40" t="s">
         <v>158</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="42">
+    <row r="57" spans="1:11" ht="42.75">
       <c r="A57" s="40" t="s">
         <v>161</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="42">
+    <row r="58" spans="1:11" ht="42.75">
       <c r="A58" s="40" t="s">
         <v>164</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="28">
+    <row r="59" spans="1:11" ht="28.5">
       <c r="A59" s="40" t="s">
         <v>167</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="42">
+    <row r="60" spans="1:11" ht="42.75">
       <c r="A60" s="40" t="s">
         <v>170</v>
       </c>
@@ -8123,7 +8123,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="98">
+    <row r="62" spans="1:11" ht="99.75">
       <c r="A62" s="40" t="s">
         <v>176</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="73.25" customHeight="1">
+    <row r="63" spans="1:11" ht="73.349999999999994" customHeight="1">
       <c r="A63" s="41" t="s">
         <v>179</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="42">
+    <row r="64" spans="1:11" ht="42.75">
       <c r="A64" s="40" t="s">
         <v>182</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="28">
+    <row r="65" spans="1:11" ht="28.5">
       <c r="A65" s="40" t="s">
         <v>185</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="42">
+    <row r="66" spans="1:11" ht="42.75">
       <c r="A66" s="40" t="s">
         <v>189</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="42">
+    <row r="67" spans="1:11" ht="42.75">
       <c r="A67" s="40"/>
       <c r="B67" s="16" t="s">
         <v>105</v>
@@ -8301,7 +8301,7 @@
       <c r="J67" s="29"/>
       <c r="K67" s="78"/>
     </row>
-    <row r="68" spans="1:11" ht="98">
+    <row r="68" spans="1:11" ht="99.75">
       <c r="A68" s="27" t="s">
         <v>192</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="140">
+    <row r="69" spans="1:11" ht="142.5">
       <c r="A69" s="27" t="s">
         <v>199</v>
       </c>
@@ -8365,7 +8365,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="266">
+    <row r="70" spans="1:11" ht="270.75">
       <c r="A70" s="27" t="s">
         <v>204</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="84">
+    <row r="71" spans="1:11" ht="85.5">
       <c r="A71" s="27" t="s">
         <v>208</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="56">
+    <row r="72" spans="1:11" ht="57">
       <c r="A72" s="27" t="s">
         <v>213</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="84">
+    <row r="73" spans="1:11" ht="99.75">
       <c r="A73" s="27" t="s">
         <v>218</v>
       </c>
@@ -8491,7 +8491,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="140">
+    <row r="74" spans="1:11" ht="142.5">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
@@ -8516,7 +8516,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="98">
+    <row r="75" spans="1:11" ht="114">
       <c r="A75" s="27" t="s">
         <v>228</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="84">
+    <row r="76" spans="1:11" ht="85.5">
       <c r="A76" s="27" t="s">
         <v>232</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="140">
+    <row r="77" spans="1:11" ht="142.5">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
@@ -8603,7 +8603,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="84">
+    <row r="78" spans="1:11" ht="85.5">
       <c r="A78" s="27" t="s">
         <v>239</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="140">
+    <row r="79" spans="1:11" ht="142.5">
       <c r="A79" s="16"/>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
@@ -8659,7 +8659,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="84">
+    <row r="80" spans="1:11" ht="85.5">
       <c r="A80" s="35" t="s">
         <v>247</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="42">
+    <row r="81" spans="1:11" ht="42.75">
       <c r="A81" s="35" t="s">
         <v>252</v>
       </c>
@@ -8814,7 +8814,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="42">
+    <row r="85" spans="1:11" ht="42.75">
       <c r="A85" s="35" t="s">
         <v>268</v>
       </c>
@@ -8836,7 +8836,7 @@
       <c r="G85" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H85" s="115" t="s">
+      <c r="H85" s="119" t="s">
         <v>1291</v>
       </c>
       <c r="I85" s="30"/>
@@ -8847,7 +8847,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="42">
+    <row r="86" spans="1:11" ht="42.75">
       <c r="A86" s="35" t="s">
         <v>272</v>
       </c>
@@ -8869,7 +8869,7 @@
       <c r="G86" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H86" s="116"/>
+      <c r="H86" s="120"/>
       <c r="I86" s="30"/>
       <c r="J86" s="29" t="s">
         <v>28</v>
@@ -8878,7 +8878,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="42">
+    <row r="87" spans="1:11" ht="42.75">
       <c r="A87" s="35" t="s">
         <v>276</v>
       </c>
@@ -8900,7 +8900,7 @@
       <c r="G87" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H87" s="116"/>
+      <c r="H87" s="120"/>
       <c r="I87" s="30"/>
       <c r="J87" s="29" t="s">
         <v>28</v>
@@ -8909,7 +8909,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="56">
+    <row r="88" spans="1:11" ht="57">
       <c r="A88" s="35" t="s">
         <v>280</v>
       </c>
@@ -8931,7 +8931,7 @@
       <c r="G88" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H88" s="116"/>
+      <c r="H88" s="120"/>
       <c r="I88" s="30"/>
       <c r="J88" s="29" t="s">
         <v>28</v>
@@ -8940,7 +8940,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="42">
+    <row r="89" spans="1:11" ht="42.75">
       <c r="A89" s="35" t="s">
         <v>284</v>
       </c>
@@ -8962,7 +8962,7 @@
       <c r="G89" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H89" s="116"/>
+      <c r="H89" s="120"/>
       <c r="I89" s="30"/>
       <c r="J89" s="29" t="s">
         <v>28</v>
@@ -8971,7 +8971,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="28">
+    <row r="90" spans="1:11" ht="28.5">
       <c r="A90" s="35" t="s">
         <v>288</v>
       </c>
@@ -8993,7 +8993,7 @@
       <c r="G90" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H90" s="116"/>
+      <c r="H90" s="120"/>
       <c r="I90" s="30"/>
       <c r="J90" s="29" t="s">
         <v>28</v>
@@ -9002,7 +9002,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="70">
+    <row r="91" spans="1:11" ht="71.25">
       <c r="A91" s="35" t="s">
         <v>292</v>
       </c>
@@ -9024,7 +9024,7 @@
       <c r="G91" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H91" s="116"/>
+      <c r="H91" s="120"/>
       <c r="I91" s="30"/>
       <c r="J91" s="29" t="s">
         <v>28</v>
@@ -9033,7 +9033,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="56">
+    <row r="92" spans="1:11" ht="57">
       <c r="A92" s="35" t="s">
         <v>296</v>
       </c>
@@ -9055,7 +9055,7 @@
       <c r="G92" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="H92" s="117"/>
+      <c r="H92" s="121"/>
       <c r="I92" s="30"/>
       <c r="J92" s="29" t="s">
         <v>28</v>
@@ -9064,7 +9064,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="70">
+    <row r="93" spans="1:11" ht="71.25">
       <c r="A93" s="35" t="s">
         <v>300</v>
       </c>
@@ -9256,7 +9256,7 @@
       <c r="J100" s="84"/>
       <c r="K100" s="85"/>
     </row>
-    <row r="101" spans="1:11" ht="28">
+    <row r="101" spans="1:11" ht="28.5">
       <c r="A101" s="79"/>
       <c r="B101" s="81" t="s">
         <v>248</v>
@@ -9279,7 +9279,7 @@
       <c r="J101" s="84"/>
       <c r="K101" s="85"/>
     </row>
-    <row r="102" spans="1:11" ht="42">
+    <row r="102" spans="1:11" ht="42.75">
       <c r="A102" s="80"/>
       <c r="B102" s="16" t="s">
         <v>248</v>
@@ -9303,21 +9303,21 @@
       <c r="K102" s="78"/>
     </row>
     <row r="103" spans="1:11" ht="57" customHeight="1">
-      <c r="A103" s="109" t="s">
+      <c r="A103" s="127" t="s">
         <v>1316</v>
       </c>
-      <c r="B103" s="110"/>
-      <c r="C103" s="110"/>
-      <c r="D103" s="110"/>
-      <c r="E103" s="110"/>
-      <c r="F103" s="110"/>
-      <c r="G103" s="110"/>
-      <c r="H103" s="110"/>
-      <c r="I103" s="110"/>
-      <c r="J103" s="110"/>
-      <c r="K103" s="111"/>
-    </row>
-    <row r="104" spans="1:11" ht="42">
+      <c r="B103" s="128"/>
+      <c r="C103" s="128"/>
+      <c r="D103" s="128"/>
+      <c r="E103" s="128"/>
+      <c r="F103" s="128"/>
+      <c r="G103" s="128"/>
+      <c r="H103" s="128"/>
+      <c r="I103" s="128"/>
+      <c r="J103" s="128"/>
+      <c r="K103" s="129"/>
+    </row>
+    <row r="104" spans="1:11" ht="42.75">
       <c r="A104" s="35" t="s">
         <v>1232</v>
       </c>
@@ -9348,7 +9348,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="42">
+    <row r="105" spans="1:11" ht="42.75">
       <c r="A105" s="35" t="s">
         <v>307</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="42">
+    <row r="106" spans="1:11" ht="57">
       <c r="A106" s="35" t="s">
         <v>311</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="56">
+    <row r="107" spans="1:11" ht="57">
       <c r="A107" s="35" t="s">
         <v>315</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="42">
+    <row r="108" spans="1:11" ht="42.75">
       <c r="A108" s="35" t="s">
         <v>319</v>
       </c>
@@ -9463,7 +9463,7 @@
       <c r="G108" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H108" s="115" t="s">
+      <c r="H108" s="119" t="s">
         <v>1289</v>
       </c>
       <c r="I108" s="30"/>
@@ -9474,7 +9474,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="42">
+    <row r="109" spans="1:11" ht="42.75">
       <c r="A109" s="35" t="s">
         <v>323</v>
       </c>
@@ -9496,7 +9496,7 @@
       <c r="G109" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H109" s="116"/>
+      <c r="H109" s="120"/>
       <c r="I109" s="30"/>
       <c r="J109" s="29" t="s">
         <v>28</v>
@@ -9505,7 +9505,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="56">
+    <row r="110" spans="1:11" ht="57">
       <c r="A110" s="35" t="s">
         <v>327</v>
       </c>
@@ -9527,7 +9527,7 @@
       <c r="G110" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H110" s="116"/>
+      <c r="H110" s="120"/>
       <c r="I110" s="30"/>
       <c r="J110" s="29" t="s">
         <v>28</v>
@@ -9536,7 +9536,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="42">
+    <row r="111" spans="1:11" ht="42.75">
       <c r="A111" s="35" t="s">
         <v>331</v>
       </c>
@@ -9558,7 +9558,7 @@
       <c r="G111" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H111" s="116"/>
+      <c r="H111" s="120"/>
       <c r="I111" s="30"/>
       <c r="J111" s="29" t="s">
         <v>28</v>
@@ -9567,7 +9567,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="42">
+    <row r="112" spans="1:11" ht="57">
       <c r="A112" s="35" t="s">
         <v>335</v>
       </c>
@@ -9589,7 +9589,7 @@
       <c r="G112" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H112" s="116"/>
+      <c r="H112" s="120"/>
       <c r="I112" s="30"/>
       <c r="J112" s="29" t="s">
         <v>28</v>
@@ -9598,7 +9598,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="42">
+    <row r="113" spans="1:11" ht="42.75">
       <c r="A113" s="35" t="s">
         <v>339</v>
       </c>
@@ -9620,7 +9620,7 @@
       <c r="G113" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H113" s="116"/>
+      <c r="H113" s="120"/>
       <c r="I113" s="30"/>
       <c r="J113" s="29" t="s">
         <v>28</v>
@@ -9629,7 +9629,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="42">
+    <row r="114" spans="1:11" ht="42.75">
       <c r="A114" s="35" t="s">
         <v>343</v>
       </c>
@@ -9651,7 +9651,7 @@
       <c r="G114" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H114" s="116"/>
+      <c r="H114" s="120"/>
       <c r="I114" s="30"/>
       <c r="J114" s="29" t="s">
         <v>28</v>
@@ -9682,7 +9682,7 @@
       <c r="G115" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H115" s="117"/>
+      <c r="H115" s="121"/>
       <c r="I115" s="30"/>
       <c r="J115" s="29" t="s">
         <v>28</v>
@@ -9722,7 +9722,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="56">
+    <row r="117" spans="1:11" ht="57">
       <c r="A117" s="35" t="s">
         <v>355</v>
       </c>
@@ -9751,7 +9751,7 @@
       </c>
       <c r="K117" s="78"/>
     </row>
-    <row r="118" spans="1:11" ht="42">
+    <row r="118" spans="1:11" ht="42.75">
       <c r="A118" s="79"/>
       <c r="B118" s="16" t="s">
         <v>248</v>
@@ -9935,7 +9935,7 @@
       <c r="J125" s="29"/>
       <c r="K125" s="78"/>
     </row>
-    <row r="126" spans="1:11" ht="84">
+    <row r="126" spans="1:11" ht="85.5">
       <c r="A126" s="80"/>
       <c r="B126" s="16" t="s">
         <v>248</v>
@@ -10142,7 +10142,7 @@
       <c r="J134" s="29"/>
       <c r="K134" s="78"/>
     </row>
-    <row r="135" spans="1:11" ht="70">
+    <row r="135" spans="1:11" ht="85.5">
       <c r="A135" s="80"/>
       <c r="B135" s="16" t="s">
         <v>248</v>
@@ -10289,7 +10289,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="112">
+    <row r="140" spans="1:11" ht="114">
       <c r="A140" s="44" t="s">
         <v>375</v>
       </c>
@@ -10318,7 +10318,7 @@
       </c>
       <c r="K140" s="78"/>
     </row>
-    <row r="141" spans="1:11" ht="28">
+    <row r="141" spans="1:11" ht="28.5">
       <c r="A141" s="16"/>
       <c r="B141" s="16"/>
       <c r="C141" s="16"/>
@@ -10343,7 +10343,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="140">
+    <row r="142" spans="1:11" ht="142.5">
       <c r="A142" s="44" t="s">
         <v>381</v>
       </c>
@@ -10372,7 +10372,7 @@
       <c r="J142" s="29"/>
       <c r="K142" s="78"/>
     </row>
-    <row r="143" spans="1:11" ht="140">
+    <row r="143" spans="1:11" ht="142.5">
       <c r="A143" s="16"/>
       <c r="B143" s="16"/>
       <c r="C143" s="16"/>
@@ -10428,7 +10428,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="56">
+    <row r="145" spans="1:11" ht="57">
       <c r="A145" s="44" t="s">
         <v>392</v>
       </c>
@@ -10450,7 +10450,7 @@
       <c r="G145" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="H145" s="100" t="s">
+      <c r="H145" s="98" t="s">
         <v>1219</v>
       </c>
       <c r="I145" s="30"/>
@@ -10479,7 +10479,7 @@
       <c r="G146" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H146" s="101"/>
+      <c r="H146" s="100"/>
       <c r="I146" s="30"/>
       <c r="J146" s="29"/>
       <c r="K146" s="78"/>
@@ -10509,7 +10509,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="70">
+    <row r="148" spans="1:11" ht="71.25">
       <c r="A148" s="59"/>
       <c r="B148" s="16"/>
       <c r="C148" s="16"/>
@@ -10535,21 +10535,21 @@
       </c>
     </row>
     <row r="149" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A149" s="105" t="s">
+      <c r="A149" s="124" t="s">
         <v>1236</v>
       </c>
-      <c r="B149" s="106"/>
-      <c r="C149" s="106"/>
-      <c r="D149" s="106"/>
-      <c r="E149" s="106"/>
-      <c r="F149" s="106"/>
-      <c r="G149" s="106"/>
-      <c r="H149" s="106"/>
-      <c r="I149" s="106"/>
-      <c r="J149" s="106"/>
-      <c r="K149" s="107"/>
-    </row>
-    <row r="150" spans="1:11" ht="70">
+      <c r="B149" s="125"/>
+      <c r="C149" s="125"/>
+      <c r="D149" s="125"/>
+      <c r="E149" s="125"/>
+      <c r="F149" s="125"/>
+      <c r="G149" s="125"/>
+      <c r="H149" s="125"/>
+      <c r="I149" s="125"/>
+      <c r="J149" s="125"/>
+      <c r="K149" s="126"/>
+    </row>
+    <row r="150" spans="1:11" ht="71.25">
       <c r="A150" s="45" t="s">
         <v>1235</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="70">
+    <row r="151" spans="1:11" ht="71.25">
       <c r="A151" s="45" t="s">
         <v>1237</v>
       </c>
@@ -10611,7 +10611,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="70">
+    <row r="152" spans="1:11" ht="71.25">
       <c r="A152" s="45" t="s">
         <v>1238</v>
       </c>
@@ -10642,7 +10642,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="70">
+    <row r="153" spans="1:11" ht="71.25">
       <c r="A153" s="45" t="s">
         <v>1239</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="70">
+    <row r="154" spans="1:11" ht="71.25">
       <c r="A154" s="45" t="s">
         <v>1240</v>
       </c>
@@ -10704,7 +10704,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="56">
+    <row r="155" spans="1:11" ht="57">
       <c r="A155" s="45" t="s">
         <v>415</v>
       </c>
@@ -10735,7 +10735,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="112">
+    <row r="156" spans="1:11" ht="114">
       <c r="A156" s="45" t="s">
         <v>421</v>
       </c>
@@ -10789,7 +10789,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="56">
+    <row r="158" spans="1:11" ht="57">
       <c r="A158" s="45" t="s">
         <v>427</v>
       </c>
@@ -10820,7 +10820,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="56">
+    <row r="159" spans="1:11" ht="57">
       <c r="A159" s="45" t="s">
         <v>432</v>
       </c>
@@ -10851,7 +10851,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="56">
+    <row r="160" spans="1:11" ht="57">
       <c r="A160" s="45" t="s">
         <v>436</v>
       </c>
@@ -10883,21 +10883,21 @@
       </c>
     </row>
     <row r="161" spans="1:11" ht="50.25" customHeight="1">
-      <c r="A161" s="105" t="s">
+      <c r="A161" s="124" t="s">
         <v>1234</v>
       </c>
-      <c r="B161" s="106"/>
-      <c r="C161" s="106"/>
-      <c r="D161" s="106"/>
-      <c r="E161" s="106"/>
-      <c r="F161" s="106"/>
-      <c r="G161" s="106"/>
-      <c r="H161" s="106"/>
-      <c r="I161" s="106"/>
-      <c r="J161" s="106"/>
-      <c r="K161" s="107"/>
-    </row>
-    <row r="162" spans="1:11" ht="70">
+      <c r="B161" s="125"/>
+      <c r="C161" s="125"/>
+      <c r="D161" s="125"/>
+      <c r="E161" s="125"/>
+      <c r="F161" s="125"/>
+      <c r="G161" s="125"/>
+      <c r="H161" s="125"/>
+      <c r="I161" s="125"/>
+      <c r="J161" s="125"/>
+      <c r="K161" s="126"/>
+    </row>
+    <row r="162" spans="1:11" ht="71.25">
       <c r="A162" s="45" t="s">
         <v>552</v>
       </c>
@@ -10928,7 +10928,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="70">
+    <row r="163" spans="1:11" ht="71.25">
       <c r="A163" s="45" t="s">
         <v>445</v>
       </c>
@@ -10959,7 +10959,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="70">
+    <row r="164" spans="1:11" ht="71.25">
       <c r="A164" s="45" t="s">
         <v>448</v>
       </c>
@@ -10990,7 +10990,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="70">
+    <row r="165" spans="1:11" ht="71.25">
       <c r="A165" s="45" t="s">
         <v>451</v>
       </c>
@@ -11021,7 +11021,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="70">
+    <row r="166" spans="1:11" ht="71.25">
       <c r="A166" s="45" t="s">
         <v>1241</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="70">
+    <row r="167" spans="1:11" ht="71.25">
       <c r="A167" s="45" t="s">
         <v>457</v>
       </c>
@@ -11083,7 +11083,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="70">
+    <row r="168" spans="1:11" ht="71.25">
       <c r="A168" s="45" t="s">
         <v>460</v>
       </c>
@@ -11114,7 +11114,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="70">
+    <row r="169" spans="1:11" ht="71.25">
       <c r="A169" s="45" t="s">
         <v>463</v>
       </c>
@@ -11145,7 +11145,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="70">
+    <row r="170" spans="1:11" ht="71.25">
       <c r="A170" s="45" t="s">
         <v>466</v>
       </c>
@@ -11176,7 +11176,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="70">
+    <row r="171" spans="1:11" ht="71.25">
       <c r="A171" s="45" t="s">
         <v>469</v>
       </c>
@@ -11207,7 +11207,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="70">
+    <row r="172" spans="1:11" ht="71.25">
       <c r="A172" s="45" t="s">
         <v>472</v>
       </c>
@@ -11238,7 +11238,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="70">
+    <row r="173" spans="1:11" ht="71.25">
       <c r="A173" s="45" t="s">
         <v>1242</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="70">
+    <row r="174" spans="1:11" ht="71.25">
       <c r="A174" s="45" t="s">
         <v>478</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="70">
+    <row r="175" spans="1:11" ht="71.25">
       <c r="A175" s="45" t="s">
         <v>481</v>
       </c>
@@ -11331,7 +11331,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="70">
+    <row r="176" spans="1:11" ht="71.25">
       <c r="A176" s="45" t="s">
         <v>484</v>
       </c>
@@ -11362,7 +11362,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="70">
+    <row r="177" spans="1:11" ht="71.25">
       <c r="A177" s="45" t="s">
         <v>487</v>
       </c>
@@ -11393,7 +11393,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="70">
+    <row r="178" spans="1:11" ht="71.25">
       <c r="A178" s="45" t="s">
         <v>490</v>
       </c>
@@ -11424,7 +11424,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="70">
+    <row r="179" spans="1:11" ht="71.25">
       <c r="A179" s="45" t="s">
         <v>1243</v>
       </c>
@@ -11455,7 +11455,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="70">
+    <row r="180" spans="1:11" ht="71.25">
       <c r="A180" s="45" t="s">
         <v>496</v>
       </c>
@@ -11486,7 +11486,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="70">
+    <row r="181" spans="1:11" ht="71.25">
       <c r="A181" s="45" t="s">
         <v>499</v>
       </c>
@@ -11517,7 +11517,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="70">
+    <row r="182" spans="1:11" ht="71.25">
       <c r="A182" s="45" t="s">
         <v>502</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="70">
+    <row r="183" spans="1:11" ht="71.25">
       <c r="A183" s="45" t="s">
         <v>505</v>
       </c>
@@ -11579,7 +11579,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="378">
+    <row r="184" spans="1:11" ht="399">
       <c r="A184" s="45" t="s">
         <v>508</v>
       </c>
@@ -11608,7 +11608,7 @@
       <c r="J184" s="29"/>
       <c r="K184" s="78"/>
     </row>
-    <row r="185" spans="1:11" ht="28">
+    <row r="185" spans="1:11" ht="28.5">
       <c r="A185" s="16"/>
       <c r="B185" s="16"/>
       <c r="C185" s="16"/>
@@ -11622,7 +11622,7 @@
       <c r="G185" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H185" s="100" t="s">
+      <c r="H185" s="98" t="s">
         <v>1167</v>
       </c>
       <c r="I185" s="30"/>
@@ -11633,7 +11633,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="28">
+    <row r="186" spans="1:11" ht="28.5">
       <c r="A186" s="16"/>
       <c r="B186" s="16"/>
       <c r="C186" s="16"/>
@@ -11647,7 +11647,7 @@
       <c r="G186" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H186" s="108"/>
+      <c r="H186" s="99"/>
       <c r="I186" s="30"/>
       <c r="J186" s="29" t="s">
         <v>28</v>
@@ -11656,7 +11656,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="28">
+    <row r="187" spans="1:11" ht="28.5">
       <c r="A187" s="16"/>
       <c r="B187" s="16"/>
       <c r="C187" s="16"/>
@@ -11670,7 +11670,7 @@
       <c r="G187" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H187" s="108"/>
+      <c r="H187" s="99"/>
       <c r="I187" s="30"/>
       <c r="J187" s="29" t="s">
         <v>28</v>
@@ -11679,7 +11679,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="28">
+    <row r="188" spans="1:11" ht="28.5">
       <c r="A188" s="16"/>
       <c r="B188" s="16"/>
       <c r="C188" s="16"/>
@@ -11693,7 +11693,7 @@
       <c r="G188" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H188" s="108"/>
+      <c r="H188" s="99"/>
       <c r="I188" s="30"/>
       <c r="J188" s="29" t="s">
         <v>28</v>
@@ -11702,7 +11702,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="28">
+    <row r="189" spans="1:11" ht="28.5">
       <c r="A189" s="16"/>
       <c r="B189" s="16"/>
       <c r="C189" s="16"/>
@@ -11716,7 +11716,7 @@
       <c r="G189" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H189" s="108"/>
+      <c r="H189" s="99"/>
       <c r="I189" s="30"/>
       <c r="J189" s="29" t="s">
         <v>28</v>
@@ -11725,7 +11725,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="28">
+    <row r="190" spans="1:11" ht="28.5">
       <c r="A190" s="16"/>
       <c r="B190" s="16"/>
       <c r="C190" s="16"/>
@@ -11739,7 +11739,7 @@
       <c r="G190" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H190" s="108"/>
+      <c r="H190" s="99"/>
       <c r="I190" s="30"/>
       <c r="J190" s="29" t="s">
         <v>28</v>
@@ -11748,7 +11748,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="28">
+    <row r="191" spans="1:11" ht="28.5">
       <c r="A191" s="16"/>
       <c r="B191" s="16"/>
       <c r="C191" s="16"/>
@@ -11762,7 +11762,7 @@
       <c r="G191" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H191" s="108"/>
+      <c r="H191" s="99"/>
       <c r="I191" s="30"/>
       <c r="J191" s="29" t="s">
         <v>28</v>
@@ -11771,7 +11771,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="28">
+    <row r="192" spans="1:11" ht="28.5">
       <c r="A192" s="16"/>
       <c r="B192" s="16"/>
       <c r="C192" s="16"/>
@@ -11785,7 +11785,7 @@
       <c r="G192" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H192" s="108"/>
+      <c r="H192" s="99"/>
       <c r="I192" s="30"/>
       <c r="J192" s="29" t="s">
         <v>28</v>
@@ -11794,7 +11794,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="28">
+    <row r="193" spans="1:11" ht="28.5">
       <c r="A193" s="16"/>
       <c r="B193" s="16"/>
       <c r="C193" s="16"/>
@@ -11808,7 +11808,7 @@
       <c r="G193" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H193" s="108"/>
+      <c r="H193" s="99"/>
       <c r="I193" s="30"/>
       <c r="J193" s="29" t="s">
         <v>28</v>
@@ -11817,7 +11817,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="28">
+    <row r="194" spans="1:11" ht="28.5">
       <c r="A194" s="16"/>
       <c r="B194" s="16"/>
       <c r="C194" s="16"/>
@@ -11831,7 +11831,7 @@
       <c r="G194" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H194" s="108"/>
+      <c r="H194" s="99"/>
       <c r="I194" s="30"/>
       <c r="J194" s="29" t="s">
         <v>28</v>
@@ -11840,7 +11840,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="28">
+    <row r="195" spans="1:11" ht="28.5">
       <c r="A195" s="16"/>
       <c r="B195" s="16"/>
       <c r="C195" s="16"/>
@@ -11854,7 +11854,7 @@
       <c r="G195" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H195" s="108"/>
+      <c r="H195" s="99"/>
       <c r="I195" s="30"/>
       <c r="J195" s="29" t="s">
         <v>28</v>
@@ -11863,7 +11863,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="28">
+    <row r="196" spans="1:11" ht="28.5">
       <c r="A196" s="16"/>
       <c r="B196" s="16"/>
       <c r="C196" s="16"/>
@@ -11877,7 +11877,7 @@
       <c r="G196" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H196" s="108"/>
+      <c r="H196" s="99"/>
       <c r="I196" s="30"/>
       <c r="J196" s="29" t="s">
         <v>28</v>
@@ -11886,7 +11886,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="28">
+    <row r="197" spans="1:11" ht="28.5">
       <c r="A197" s="16"/>
       <c r="B197" s="16"/>
       <c r="C197" s="16"/>
@@ -11900,7 +11900,7 @@
       <c r="G197" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H197" s="108"/>
+      <c r="H197" s="99"/>
       <c r="I197" s="30"/>
       <c r="J197" s="29" t="s">
         <v>28</v>
@@ -11909,7 +11909,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="28">
+    <row r="198" spans="1:11" ht="28.5">
       <c r="A198" s="16"/>
       <c r="B198" s="16"/>
       <c r="C198" s="16"/>
@@ -11923,7 +11923,7 @@
       <c r="G198" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H198" s="108"/>
+      <c r="H198" s="99"/>
       <c r="I198" s="30"/>
       <c r="J198" s="29" t="s">
         <v>28</v>
@@ -11932,7 +11932,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="28">
+    <row r="199" spans="1:11" ht="28.5">
       <c r="A199" s="16"/>
       <c r="B199" s="16"/>
       <c r="C199" s="16"/>
@@ -11946,7 +11946,7 @@
       <c r="G199" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H199" s="101"/>
+      <c r="H199" s="100"/>
       <c r="I199" s="30"/>
       <c r="J199" s="29" t="s">
         <v>28</v>
@@ -11955,7 +11955,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="84">
+    <row r="200" spans="1:11" ht="86.25">
       <c r="A200" s="45" t="s">
         <v>540</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="84">
+    <row r="202" spans="1:11" ht="86.25">
       <c r="A202" s="45" t="s">
         <v>548</v>
       </c>
@@ -12049,21 +12049,21 @@
       <c r="K202" s="78"/>
     </row>
     <row r="203" spans="1:11" ht="84.75" customHeight="1">
-      <c r="A203" s="105" t="s">
+      <c r="A203" s="124" t="s">
         <v>551</v>
       </c>
-      <c r="B203" s="106"/>
-      <c r="C203" s="106"/>
-      <c r="D203" s="106"/>
-      <c r="E203" s="106"/>
-      <c r="F203" s="106"/>
-      <c r="G203" s="106"/>
-      <c r="H203" s="106"/>
-      <c r="I203" s="106"/>
-      <c r="J203" s="106"/>
-      <c r="K203" s="107"/>
-    </row>
-    <row r="204" spans="1:11" ht="70">
+      <c r="B203" s="125"/>
+      <c r="C203" s="125"/>
+      <c r="D203" s="125"/>
+      <c r="E203" s="125"/>
+      <c r="F203" s="125"/>
+      <c r="G203" s="125"/>
+      <c r="H203" s="125"/>
+      <c r="I203" s="125"/>
+      <c r="J203" s="125"/>
+      <c r="K203" s="126"/>
+    </row>
+    <row r="204" spans="1:11" ht="71.25">
       <c r="A204" s="45" t="s">
         <v>552</v>
       </c>
@@ -12094,7 +12094,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="70">
+    <row r="205" spans="1:11" ht="71.25">
       <c r="A205" s="45" t="s">
         <v>445</v>
       </c>
@@ -12125,7 +12125,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="70">
+    <row r="206" spans="1:11" ht="71.25">
       <c r="A206" s="45" t="s">
         <v>448</v>
       </c>
@@ -12156,7 +12156,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="70">
+    <row r="207" spans="1:11" ht="71.25">
       <c r="A207" s="45" t="s">
         <v>451</v>
       </c>
@@ -12187,7 +12187,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="70">
+    <row r="208" spans="1:11" ht="71.25">
       <c r="A208" s="45" t="s">
         <v>454</v>
       </c>
@@ -12218,7 +12218,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="70">
+    <row r="209" spans="1:11" ht="71.25">
       <c r="A209" s="45" t="s">
         <v>457</v>
       </c>
@@ -12249,7 +12249,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="70">
+    <row r="210" spans="1:11" ht="71.25">
       <c r="A210" s="45" t="s">
         <v>460</v>
       </c>
@@ -12280,7 +12280,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="70">
+    <row r="211" spans="1:11" ht="71.25">
       <c r="A211" s="45" t="s">
         <v>463</v>
       </c>
@@ -12311,7 +12311,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="70">
+    <row r="212" spans="1:11" ht="71.25">
       <c r="A212" s="45" t="s">
         <v>466</v>
       </c>
@@ -12342,7 +12342,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="70">
+    <row r="213" spans="1:11" ht="71.25">
       <c r="A213" s="45" t="s">
         <v>469</v>
       </c>
@@ -12373,7 +12373,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="70">
+    <row r="214" spans="1:11" ht="71.25">
       <c r="A214" s="45" t="s">
         <v>472</v>
       </c>
@@ -12404,7 +12404,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="215" spans="1:11" ht="70">
+    <row r="215" spans="1:11" ht="71.25">
       <c r="A215" s="45" t="s">
         <v>475</v>
       </c>
@@ -12435,7 +12435,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="70">
+    <row r="216" spans="1:11" ht="71.25">
       <c r="A216" s="45" t="s">
         <v>478</v>
       </c>
@@ -12466,7 +12466,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="70">
+    <row r="217" spans="1:11" ht="71.25">
       <c r="A217" s="45" t="s">
         <v>481</v>
       </c>
@@ -12497,7 +12497,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="70">
+    <row r="218" spans="1:11" ht="71.25">
       <c r="A218" s="45" t="s">
         <v>484</v>
       </c>
@@ -12528,7 +12528,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="70">
+    <row r="219" spans="1:11" ht="71.25">
       <c r="A219" s="45" t="s">
         <v>487</v>
       </c>
@@ -12559,7 +12559,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="70">
+    <row r="220" spans="1:11" ht="71.25">
       <c r="A220" s="45" t="s">
         <v>490</v>
       </c>
@@ -12590,7 +12590,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="70">
+    <row r="221" spans="1:11" ht="71.25">
       <c r="A221" s="45" t="s">
         <v>493</v>
       </c>
@@ -12621,7 +12621,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="222" spans="1:11" ht="70">
+    <row r="222" spans="1:11" ht="71.25">
       <c r="A222" s="45" t="s">
         <v>496</v>
       </c>
@@ -12652,7 +12652,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="70">
+    <row r="223" spans="1:11" ht="71.25">
       <c r="A223" s="45" t="s">
         <v>499</v>
       </c>
@@ -12683,7 +12683,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="70">
+    <row r="224" spans="1:11" ht="71.25">
       <c r="A224" s="45" t="s">
         <v>502</v>
       </c>
@@ -12714,7 +12714,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="70">
+    <row r="225" spans="1:11" ht="71.25">
       <c r="A225" s="45" t="s">
         <v>505</v>
       </c>
@@ -12772,7 +12772,7 @@
       <c r="J226" s="29"/>
       <c r="K226" s="78"/>
     </row>
-    <row r="227" spans="1:11" ht="28">
+    <row r="227" spans="1:11" ht="28.5">
       <c r="A227" s="16"/>
       <c r="B227" s="16"/>
       <c r="C227" s="16"/>
@@ -12786,7 +12786,7 @@
       <c r="G227" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H227" s="100" t="s">
+      <c r="H227" s="98" t="s">
         <v>1168</v>
       </c>
       <c r="I227" s="30"/>
@@ -12797,7 +12797,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="28">
+    <row r="228" spans="1:11" ht="28.5">
       <c r="A228" s="16"/>
       <c r="B228" s="16"/>
       <c r="C228" s="16"/>
@@ -12811,7 +12811,7 @@
       <c r="G228" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H228" s="108"/>
+      <c r="H228" s="99"/>
       <c r="I228" s="30"/>
       <c r="J228" s="29" t="s">
         <v>28</v>
@@ -12820,7 +12820,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="28">
+    <row r="229" spans="1:11" ht="28.5">
       <c r="A229" s="16"/>
       <c r="B229" s="16"/>
       <c r="C229" s="16"/>
@@ -12834,7 +12834,7 @@
       <c r="G229" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H229" s="108"/>
+      <c r="H229" s="99"/>
       <c r="I229" s="30"/>
       <c r="J229" s="29" t="s">
         <v>28</v>
@@ -12843,7 +12843,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="28">
+    <row r="230" spans="1:11" ht="28.5">
       <c r="A230" s="16"/>
       <c r="B230" s="16"/>
       <c r="C230" s="16"/>
@@ -12857,7 +12857,7 @@
       <c r="G230" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H230" s="108"/>
+      <c r="H230" s="99"/>
       <c r="I230" s="30"/>
       <c r="J230" s="29" t="s">
         <v>28</v>
@@ -12866,7 +12866,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="28">
+    <row r="231" spans="1:11" ht="28.5">
       <c r="A231" s="16"/>
       <c r="B231" s="16"/>
       <c r="C231" s="16"/>
@@ -12880,7 +12880,7 @@
       <c r="G231" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H231" s="108"/>
+      <c r="H231" s="99"/>
       <c r="I231" s="30"/>
       <c r="J231" s="29" t="s">
         <v>28</v>
@@ -12889,7 +12889,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="28">
+    <row r="232" spans="1:11" ht="28.5">
       <c r="A232" s="16"/>
       <c r="B232" s="16"/>
       <c r="C232" s="16"/>
@@ -12903,7 +12903,7 @@
       <c r="G232" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H232" s="108"/>
+      <c r="H232" s="99"/>
       <c r="I232" s="30"/>
       <c r="J232" s="29" t="s">
         <v>28</v>
@@ -12912,7 +12912,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="28">
+    <row r="233" spans="1:11" ht="28.5">
       <c r="A233" s="16"/>
       <c r="B233" s="16"/>
       <c r="C233" s="16"/>
@@ -12926,7 +12926,7 @@
       <c r="G233" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H233" s="108"/>
+      <c r="H233" s="99"/>
       <c r="I233" s="30"/>
       <c r="J233" s="29" t="s">
         <v>28</v>
@@ -12935,7 +12935,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="28">
+    <row r="234" spans="1:11" ht="28.5">
       <c r="A234" s="16"/>
       <c r="B234" s="16"/>
       <c r="C234" s="16"/>
@@ -12949,7 +12949,7 @@
       <c r="G234" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H234" s="108"/>
+      <c r="H234" s="99"/>
       <c r="I234" s="30"/>
       <c r="J234" s="29" t="s">
         <v>28</v>
@@ -12958,7 +12958,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="28">
+    <row r="235" spans="1:11" ht="28.5">
       <c r="A235" s="16"/>
       <c r="B235" s="16"/>
       <c r="C235" s="16"/>
@@ -12972,7 +12972,7 @@
       <c r="G235" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H235" s="101"/>
+      <c r="H235" s="100"/>
       <c r="I235" s="30"/>
       <c r="J235" s="29" t="s">
         <v>28</v>
@@ -12981,7 +12981,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="84">
+    <row r="236" spans="1:11" ht="86.25">
       <c r="A236" s="45" t="s">
         <v>634</v>
       </c>
@@ -13011,21 +13011,21 @@
       <c r="K236" s="78"/>
     </row>
     <row r="237" spans="1:11" ht="62.25" customHeight="1">
-      <c r="A237" s="105" t="s">
+      <c r="A237" s="124" t="s">
         <v>637</v>
       </c>
-      <c r="B237" s="106"/>
-      <c r="C237" s="106"/>
-      <c r="D237" s="106"/>
-      <c r="E237" s="106"/>
-      <c r="F237" s="106"/>
-      <c r="G237" s="106"/>
-      <c r="H237" s="106"/>
-      <c r="I237" s="106"/>
-      <c r="J237" s="106"/>
-      <c r="K237" s="107"/>
-    </row>
-    <row r="238" spans="1:11" ht="70">
+      <c r="B237" s="125"/>
+      <c r="C237" s="125"/>
+      <c r="D237" s="125"/>
+      <c r="E237" s="125"/>
+      <c r="F237" s="125"/>
+      <c r="G237" s="125"/>
+      <c r="H237" s="125"/>
+      <c r="I237" s="125"/>
+      <c r="J237" s="125"/>
+      <c r="K237" s="126"/>
+    </row>
+    <row r="238" spans="1:11" ht="71.25">
       <c r="A238" s="45" t="s">
         <v>638</v>
       </c>
@@ -13056,7 +13056,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="70">
+    <row r="239" spans="1:11" ht="71.25">
       <c r="A239" s="45" t="s">
         <v>481</v>
       </c>
@@ -13087,7 +13087,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="70">
+    <row r="240" spans="1:11" ht="71.25">
       <c r="A240" s="45" t="s">
         <v>484</v>
       </c>
@@ -13118,7 +13118,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="70">
+    <row r="241" spans="1:11" ht="71.25">
       <c r="A241" s="45" t="s">
         <v>487</v>
       </c>
@@ -13149,7 +13149,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="70">
+    <row r="242" spans="1:11" ht="71.25">
       <c r="A242" s="45" t="s">
         <v>648</v>
       </c>
@@ -13180,7 +13180,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="243" spans="1:11" ht="70">
+    <row r="243" spans="1:11" ht="71.25">
       <c r="A243" s="45" t="s">
         <v>651</v>
       </c>
@@ -13211,7 +13211,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="70">
+    <row r="244" spans="1:11" ht="71.25">
       <c r="A244" s="45" t="s">
         <v>654</v>
       </c>
@@ -13242,7 +13242,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="70">
+    <row r="245" spans="1:11" ht="71.25">
       <c r="A245" s="45" t="s">
         <v>499</v>
       </c>
@@ -13273,7 +13273,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="70">
+    <row r="246" spans="1:11" ht="71.25">
       <c r="A246" s="45" t="s">
         <v>502</v>
       </c>
@@ -13304,7 +13304,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="70">
+    <row r="247" spans="1:11" ht="71.25">
       <c r="A247" s="45" t="s">
         <v>661</v>
       </c>
@@ -13335,7 +13335,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="70">
+    <row r="248" spans="1:11" ht="71.25">
       <c r="A248" s="45" t="s">
         <v>664</v>
       </c>
@@ -13366,7 +13366,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="70">
+    <row r="249" spans="1:11" ht="71.25">
       <c r="A249" s="45" t="s">
         <v>667</v>
       </c>
@@ -13397,7 +13397,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="250" spans="1:11" ht="196">
+    <row r="250" spans="1:11" ht="213.75">
       <c r="A250" s="45" t="s">
         <v>670</v>
       </c>
@@ -13424,7 +13424,7 @@
       <c r="J250" s="29"/>
       <c r="K250" s="78"/>
     </row>
-    <row r="251" spans="1:11" ht="28">
+    <row r="251" spans="1:11" ht="28.5">
       <c r="A251" s="16"/>
       <c r="B251" s="16"/>
       <c r="C251" s="16"/>
@@ -13438,7 +13438,7 @@
       <c r="G251" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H251" s="100" t="s">
+      <c r="H251" s="98" t="s">
         <v>1169</v>
       </c>
       <c r="I251" s="30"/>
@@ -13449,7 +13449,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="28">
+    <row r="252" spans="1:11" ht="28.5">
       <c r="A252" s="16"/>
       <c r="B252" s="16"/>
       <c r="C252" s="16"/>
@@ -13463,7 +13463,7 @@
       <c r="G252" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H252" s="108"/>
+      <c r="H252" s="99"/>
       <c r="I252" s="30"/>
       <c r="J252" s="29" t="s">
         <v>28</v>
@@ -13472,7 +13472,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="28">
+    <row r="253" spans="1:11" ht="28.5">
       <c r="A253" s="16"/>
       <c r="B253" s="16"/>
       <c r="C253" s="16"/>
@@ -13486,7 +13486,7 @@
       <c r="G253" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H253" s="108"/>
+      <c r="H253" s="99"/>
       <c r="I253" s="30"/>
       <c r="J253" s="29" t="s">
         <v>28</v>
@@ -13495,7 +13495,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="28">
+    <row r="254" spans="1:11" ht="28.5">
       <c r="A254" s="16"/>
       <c r="B254" s="16"/>
       <c r="C254" s="16"/>
@@ -13509,7 +13509,7 @@
       <c r="G254" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H254" s="108"/>
+      <c r="H254" s="99"/>
       <c r="I254" s="30"/>
       <c r="J254" s="29" t="s">
         <v>28</v>
@@ -13518,7 +13518,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="28">
+    <row r="255" spans="1:11" ht="28.5">
       <c r="A255" s="16"/>
       <c r="B255" s="16"/>
       <c r="C255" s="16"/>
@@ -13532,7 +13532,7 @@
       <c r="G255" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H255" s="108"/>
+      <c r="H255" s="99"/>
       <c r="I255" s="30"/>
       <c r="J255" s="29" t="s">
         <v>28</v>
@@ -13541,7 +13541,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="28">
+    <row r="256" spans="1:11" ht="28.5">
       <c r="A256" s="16"/>
       <c r="B256" s="16"/>
       <c r="C256" s="16"/>
@@ -13555,7 +13555,7 @@
       <c r="G256" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H256" s="108"/>
+      <c r="H256" s="99"/>
       <c r="I256" s="30"/>
       <c r="J256" s="29" t="s">
         <v>28</v>
@@ -13564,7 +13564,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="257" spans="1:11" ht="28">
+    <row r="257" spans="1:11" ht="28.5">
       <c r="A257" s="16"/>
       <c r="B257" s="16"/>
       <c r="C257" s="16"/>
@@ -13578,7 +13578,7 @@
       <c r="G257" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H257" s="108"/>
+      <c r="H257" s="99"/>
       <c r="I257" s="30"/>
       <c r="J257" s="29" t="s">
         <v>28</v>
@@ -13587,7 +13587,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="28">
+    <row r="258" spans="1:11" ht="28.5">
       <c r="A258" s="16"/>
       <c r="B258" s="16"/>
       <c r="C258" s="16"/>
@@ -13601,7 +13601,7 @@
       <c r="G258" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H258" s="108"/>
+      <c r="H258" s="99"/>
       <c r="I258" s="30"/>
       <c r="J258" s="29" t="s">
         <v>28</v>
@@ -13610,7 +13610,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="28">
+    <row r="259" spans="1:11" ht="28.5">
       <c r="A259" s="16"/>
       <c r="B259" s="16"/>
       <c r="C259" s="16"/>
@@ -13624,7 +13624,7 @@
       <c r="G259" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H259" s="101"/>
+      <c r="H259" s="100"/>
       <c r="I259" s="30"/>
       <c r="J259" s="29" t="s">
         <v>28</v>
@@ -13633,7 +13633,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="84">
+    <row r="260" spans="1:11" ht="86.25">
       <c r="A260" s="45" t="s">
         <v>683</v>
       </c>
@@ -13659,21 +13659,21 @@
       <c r="K260" s="78"/>
     </row>
     <row r="261" spans="1:11" ht="37.5" customHeight="1">
-      <c r="A261" s="102" t="s">
+      <c r="A261" s="101" t="s">
         <v>686</v>
       </c>
-      <c r="B261" s="103"/>
-      <c r="C261" s="103"/>
-      <c r="D261" s="103"/>
-      <c r="E261" s="103"/>
-      <c r="F261" s="103"/>
-      <c r="G261" s="103"/>
-      <c r="H261" s="103"/>
-      <c r="I261" s="103"/>
-      <c r="J261" s="103"/>
-      <c r="K261" s="104"/>
-    </row>
-    <row r="262" spans="1:11" ht="70">
+      <c r="B261" s="102"/>
+      <c r="C261" s="102"/>
+      <c r="D261" s="102"/>
+      <c r="E261" s="102"/>
+      <c r="F261" s="102"/>
+      <c r="G261" s="102"/>
+      <c r="H261" s="102"/>
+      <c r="I261" s="102"/>
+      <c r="J261" s="102"/>
+      <c r="K261" s="103"/>
+    </row>
+    <row r="262" spans="1:11" ht="71.25">
       <c r="A262" s="36" t="s">
         <v>688</v>
       </c>
@@ -13704,7 +13704,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="263" spans="1:11" ht="70">
+    <row r="263" spans="1:11" ht="71.25">
       <c r="A263" s="36" t="s">
         <v>691</v>
       </c>
@@ -13735,7 +13735,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="264" spans="1:11" ht="70">
+    <row r="264" spans="1:11" ht="71.25">
       <c r="A264" s="36" t="s">
         <v>502</v>
       </c>
@@ -13766,7 +13766,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="70">
+    <row r="265" spans="1:11" ht="71.25">
       <c r="A265" s="36" t="s">
         <v>696</v>
       </c>
@@ -13797,7 +13797,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="266" spans="1:11" ht="70">
+    <row r="266" spans="1:11" ht="71.25">
       <c r="A266" s="36" t="s">
         <v>699</v>
       </c>
@@ -13828,7 +13828,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="267" spans="1:11" ht="266">
+    <row r="267" spans="1:11" ht="270.75">
       <c r="A267" s="36" t="s">
         <v>702</v>
       </c>
@@ -13855,7 +13855,7 @@
       <c r="J267" s="29"/>
       <c r="K267" s="78"/>
     </row>
-    <row r="268" spans="1:11" ht="28">
+    <row r="268" spans="1:11" ht="28.5">
       <c r="A268" s="16"/>
       <c r="B268" s="16"/>
       <c r="C268" s="16"/>
@@ -13869,7 +13869,7 @@
       <c r="G268" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H268" s="100" t="s">
+      <c r="H268" s="98" t="s">
         <v>1171</v>
       </c>
       <c r="I268" s="30"/>
@@ -13880,7 +13880,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="269" spans="1:11" ht="28">
+    <row r="269" spans="1:11" ht="28.5">
       <c r="A269" s="16"/>
       <c r="B269" s="16"/>
       <c r="C269" s="16"/>
@@ -13894,7 +13894,7 @@
       <c r="G269" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H269" s="108"/>
+      <c r="H269" s="99"/>
       <c r="I269" s="30"/>
       <c r="J269" s="29" t="s">
         <v>28</v>
@@ -13903,7 +13903,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="270" spans="1:11" ht="28">
+    <row r="270" spans="1:11" ht="28.5">
       <c r="A270" s="16"/>
       <c r="B270" s="16"/>
       <c r="C270" s="16"/>
@@ -13917,7 +13917,7 @@
       <c r="G270" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H270" s="108"/>
+      <c r="H270" s="99"/>
       <c r="I270" s="30"/>
       <c r="J270" s="29" t="s">
         <v>28</v>
@@ -13926,7 +13926,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="271" spans="1:11" ht="28">
+    <row r="271" spans="1:11" ht="28.5">
       <c r="A271" s="16"/>
       <c r="B271" s="16"/>
       <c r="C271" s="16"/>
@@ -13940,7 +13940,7 @@
       <c r="G271" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H271" s="108"/>
+      <c r="H271" s="99"/>
       <c r="I271" s="30"/>
       <c r="J271" s="29" t="s">
         <v>28</v>
@@ -13949,7 +13949,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="28">
+    <row r="272" spans="1:11" ht="28.5">
       <c r="A272" s="16"/>
       <c r="B272" s="16"/>
       <c r="C272" s="16"/>
@@ -13963,7 +13963,7 @@
       <c r="G272" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H272" s="108"/>
+      <c r="H272" s="99"/>
       <c r="I272" s="30"/>
       <c r="J272" s="29" t="s">
         <v>28</v>
@@ -13972,7 +13972,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="28">
+    <row r="273" spans="1:11" ht="28.5">
       <c r="A273" s="16"/>
       <c r="B273" s="16"/>
       <c r="C273" s="16"/>
@@ -13986,7 +13986,7 @@
       <c r="G273" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H273" s="108"/>
+      <c r="H273" s="99"/>
       <c r="I273" s="30"/>
       <c r="J273" s="29" t="s">
         <v>28</v>
@@ -13995,7 +13995,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="274" spans="1:11" ht="28">
+    <row r="274" spans="1:11" ht="28.5">
       <c r="A274" s="16"/>
       <c r="B274" s="16"/>
       <c r="C274" s="16"/>
@@ -14009,7 +14009,7 @@
       <c r="G274" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H274" s="108"/>
+      <c r="H274" s="99"/>
       <c r="I274" s="30"/>
       <c r="J274" s="29" t="s">
         <v>28</v>
@@ -14018,7 +14018,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="275" spans="1:11" ht="28">
+    <row r="275" spans="1:11" ht="28.5">
       <c r="A275" s="16"/>
       <c r="B275" s="16"/>
       <c r="C275" s="16"/>
@@ -14032,7 +14032,7 @@
       <c r="G275" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H275" s="108"/>
+      <c r="H275" s="99"/>
       <c r="I275" s="30"/>
       <c r="J275" s="29" t="s">
         <v>28</v>
@@ -14041,7 +14041,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="276" spans="1:11" ht="28">
+    <row r="276" spans="1:11" ht="28.5">
       <c r="A276" s="16"/>
       <c r="B276" s="16"/>
       <c r="C276" s="16"/>
@@ -14055,7 +14055,7 @@
       <c r="G276" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H276" s="108"/>
+      <c r="H276" s="99"/>
       <c r="I276" s="30"/>
       <c r="J276" s="29" t="s">
         <v>28</v>
@@ -14064,7 +14064,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="28">
+    <row r="277" spans="1:11" ht="28.5">
       <c r="A277" s="16"/>
       <c r="B277" s="16"/>
       <c r="C277" s="16"/>
@@ -14078,7 +14078,7 @@
       <c r="G277" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H277" s="108"/>
+      <c r="H277" s="99"/>
       <c r="I277" s="30"/>
       <c r="J277" s="29" t="s">
         <v>28</v>
@@ -14087,7 +14087,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="28">
+    <row r="278" spans="1:11" ht="28.5">
       <c r="A278" s="16"/>
       <c r="B278" s="16"/>
       <c r="C278" s="16"/>
@@ -14101,7 +14101,7 @@
       <c r="G278" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H278" s="101"/>
+      <c r="H278" s="100"/>
       <c r="I278" s="30"/>
       <c r="J278" s="29" t="s">
         <v>28</v>
@@ -14110,7 +14110,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="84">
+    <row r="279" spans="1:11" ht="86.25">
       <c r="A279" s="36" t="s">
         <v>717</v>
       </c>
@@ -14140,21 +14140,21 @@
       <c r="K279" s="78"/>
     </row>
     <row r="280" spans="1:11" ht="53.25" customHeight="1">
-      <c r="A280" s="102" t="s">
+      <c r="A280" s="101" t="s">
         <v>720</v>
       </c>
-      <c r="B280" s="103"/>
-      <c r="C280" s="103"/>
-      <c r="D280" s="103"/>
-      <c r="E280" s="103"/>
-      <c r="F280" s="103"/>
-      <c r="G280" s="103"/>
-      <c r="H280" s="103"/>
-      <c r="I280" s="103"/>
-      <c r="J280" s="103"/>
-      <c r="K280" s="104"/>
-    </row>
-    <row r="281" spans="1:11" ht="70">
+      <c r="B280" s="102"/>
+      <c r="C280" s="102"/>
+      <c r="D280" s="102"/>
+      <c r="E280" s="102"/>
+      <c r="F280" s="102"/>
+      <c r="G280" s="102"/>
+      <c r="H280" s="102"/>
+      <c r="I280" s="102"/>
+      <c r="J280" s="102"/>
+      <c r="K280" s="103"/>
+    </row>
+    <row r="281" spans="1:11" ht="71.25">
       <c r="A281" s="36" t="s">
         <v>481</v>
       </c>
@@ -14185,7 +14185,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="282" spans="1:11" ht="70">
+    <row r="282" spans="1:11" ht="71.25">
       <c r="A282" s="36" t="s">
         <v>484</v>
       </c>
@@ -14216,7 +14216,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="283" spans="1:11" ht="70">
+    <row r="283" spans="1:11" ht="71.25">
       <c r="A283" s="36" t="s">
         <v>726</v>
       </c>
@@ -14247,7 +14247,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="284" spans="1:11" ht="70">
+    <row r="284" spans="1:11" ht="71.25">
       <c r="A284" s="36" t="s">
         <v>729</v>
       </c>
@@ -14278,7 +14278,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="285" spans="1:11" ht="70">
+    <row r="285" spans="1:11" ht="71.25">
       <c r="A285" s="36" t="s">
         <v>732</v>
       </c>
@@ -14309,7 +14309,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="70">
+    <row r="286" spans="1:11" ht="71.25">
       <c r="A286" s="36" t="s">
         <v>735</v>
       </c>
@@ -14340,7 +14340,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="70">
+    <row r="287" spans="1:11" ht="71.25">
       <c r="A287" s="36" t="s">
         <v>738</v>
       </c>
@@ -14371,7 +14371,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="70">
+    <row r="288" spans="1:11" ht="71.25">
       <c r="A288" s="36" t="s">
         <v>502</v>
       </c>
@@ -14402,7 +14402,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="289" spans="1:11" ht="70">
+    <row r="289" spans="1:11" ht="71.25">
       <c r="A289" s="36" t="s">
         <v>661</v>
       </c>
@@ -14433,7 +14433,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="290" spans="1:11" ht="70">
+    <row r="290" spans="1:11" ht="71.25">
       <c r="A290" s="36" t="s">
         <v>745</v>
       </c>
@@ -14464,7 +14464,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="70">
+    <row r="291" spans="1:11" ht="71.25">
       <c r="A291" s="36" t="s">
         <v>748</v>
       </c>
@@ -14522,7 +14522,7 @@
       <c r="J292" s="29"/>
       <c r="K292" s="78"/>
     </row>
-    <row r="293" spans="1:11" ht="28">
+    <row r="293" spans="1:11" ht="28.5">
       <c r="A293" s="16"/>
       <c r="B293" s="16"/>
       <c r="C293" s="16"/>
@@ -14536,7 +14536,7 @@
       <c r="G293" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H293" s="100" t="s">
+      <c r="H293" s="98" t="s">
         <v>1173</v>
       </c>
       <c r="I293" s="30"/>
@@ -14547,7 +14547,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="294" spans="1:11" ht="28">
+    <row r="294" spans="1:11" ht="28.5">
       <c r="A294" s="16"/>
       <c r="B294" s="16"/>
       <c r="C294" s="16"/>
@@ -14561,7 +14561,7 @@
       <c r="G294" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H294" s="108"/>
+      <c r="H294" s="99"/>
       <c r="I294" s="30"/>
       <c r="J294" s="29" t="s">
         <v>28</v>
@@ -14570,7 +14570,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="295" spans="1:11" ht="28">
+    <row r="295" spans="1:11" ht="28.5">
       <c r="A295" s="16"/>
       <c r="B295" s="16"/>
       <c r="C295" s="16"/>
@@ -14584,7 +14584,7 @@
       <c r="G295" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H295" s="108"/>
+      <c r="H295" s="99"/>
       <c r="I295" s="30"/>
       <c r="J295" s="29" t="s">
         <v>28</v>
@@ -14593,7 +14593,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="28">
+    <row r="296" spans="1:11" ht="28.5">
       <c r="A296" s="16"/>
       <c r="B296" s="16"/>
       <c r="C296" s="16"/>
@@ -14607,7 +14607,7 @@
       <c r="G296" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H296" s="108"/>
+      <c r="H296" s="99"/>
       <c r="I296" s="30"/>
       <c r="J296" s="29" t="s">
         <v>28</v>
@@ -14616,7 +14616,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="297" spans="1:11" ht="28">
+    <row r="297" spans="1:11" ht="28.5">
       <c r="A297" s="16"/>
       <c r="B297" s="16"/>
       <c r="C297" s="16"/>
@@ -14630,7 +14630,7 @@
       <c r="G297" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H297" s="108"/>
+      <c r="H297" s="99"/>
       <c r="I297" s="30"/>
       <c r="J297" s="29" t="s">
         <v>28</v>
@@ -14639,7 +14639,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="28">
+    <row r="298" spans="1:11" ht="28.5">
       <c r="A298" s="16"/>
       <c r="B298" s="16"/>
       <c r="C298" s="16"/>
@@ -14653,7 +14653,7 @@
       <c r="G298" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H298" s="108"/>
+      <c r="H298" s="99"/>
       <c r="I298" s="30"/>
       <c r="J298" s="29" t="s">
         <v>28</v>
@@ -14662,7 +14662,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="299" spans="1:11" ht="28">
+    <row r="299" spans="1:11" ht="28.5">
       <c r="A299" s="16"/>
       <c r="B299" s="16"/>
       <c r="C299" s="16"/>
@@ -14676,7 +14676,7 @@
       <c r="G299" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H299" s="108"/>
+      <c r="H299" s="99"/>
       <c r="I299" s="30"/>
       <c r="J299" s="29" t="s">
         <v>28</v>
@@ -14685,7 +14685,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="300" spans="1:11" ht="28">
+    <row r="300" spans="1:11" ht="28.5">
       <c r="A300" s="16"/>
       <c r="B300" s="16"/>
       <c r="C300" s="16"/>
@@ -14699,7 +14699,7 @@
       <c r="G300" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H300" s="101"/>
+      <c r="H300" s="100"/>
       <c r="I300" s="30"/>
       <c r="J300" s="29" t="s">
         <v>28</v>
@@ -14708,7 +14708,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="301" spans="1:11" ht="84">
+    <row r="301" spans="1:11" ht="86.25">
       <c r="A301" s="70" t="s">
         <v>1206</v>
       </c>
@@ -14738,19 +14738,19 @@
       <c r="K301" s="78"/>
     </row>
     <row r="302" spans="1:11" ht="79.5" customHeight="1">
-      <c r="A302" s="118" t="s">
+      <c r="A302" s="104" t="s">
         <v>763</v>
       </c>
-      <c r="B302" s="119"/>
-      <c r="C302" s="119"/>
-      <c r="D302" s="119"/>
-      <c r="E302" s="119"/>
-      <c r="F302" s="119"/>
-      <c r="G302" s="119"/>
-      <c r="H302" s="119"/>
-      <c r="I302" s="119"/>
-      <c r="J302" s="119"/>
-      <c r="K302" s="120"/>
+      <c r="B302" s="105"/>
+      <c r="C302" s="105"/>
+      <c r="D302" s="105"/>
+      <c r="E302" s="105"/>
+      <c r="F302" s="105"/>
+      <c r="G302" s="105"/>
+      <c r="H302" s="105"/>
+      <c r="I302" s="105"/>
+      <c r="J302" s="105"/>
+      <c r="K302" s="106"/>
     </row>
     <row r="303" spans="1:11" ht="93.75" customHeight="1">
       <c r="A303" s="37" t="s">
@@ -14814,7 +14814,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="305" spans="1:11" ht="70">
+    <row r="305" spans="1:11" ht="71.25">
       <c r="A305" s="37" t="s">
         <v>774</v>
       </c>
@@ -14846,21 +14846,21 @@
       </c>
     </row>
     <row r="306" spans="1:11" ht="85.5" customHeight="1">
-      <c r="A306" s="121" t="s">
+      <c r="A306" s="107" t="s">
         <v>778</v>
       </c>
-      <c r="B306" s="122"/>
-      <c r="C306" s="122"/>
-      <c r="D306" s="122"/>
-      <c r="E306" s="122"/>
-      <c r="F306" s="122"/>
-      <c r="G306" s="122"/>
-      <c r="H306" s="122"/>
-      <c r="I306" s="122"/>
-      <c r="J306" s="122"/>
-      <c r="K306" s="123"/>
-    </row>
-    <row r="307" spans="1:11" ht="56">
+      <c r="B306" s="108"/>
+      <c r="C306" s="108"/>
+      <c r="D306" s="108"/>
+      <c r="E306" s="108"/>
+      <c r="F306" s="108"/>
+      <c r="G306" s="108"/>
+      <c r="H306" s="108"/>
+      <c r="I306" s="108"/>
+      <c r="J306" s="108"/>
+      <c r="K306" s="109"/>
+    </row>
+    <row r="307" spans="1:11" ht="57">
       <c r="A307" s="37" t="s">
         <v>779</v>
       </c>
@@ -14891,7 +14891,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="308" spans="1:11" ht="28">
+    <row r="308" spans="1:11" ht="28.5">
       <c r="A308" s="37" t="s">
         <v>783</v>
       </c>
@@ -14953,7 +14953,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="310" spans="1:11" ht="56">
+    <row r="310" spans="1:11" ht="57">
       <c r="A310" s="37" t="s">
         <v>792</v>
       </c>
@@ -14984,7 +14984,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="311" spans="1:11" ht="42">
+    <row r="311" spans="1:11" ht="42.75">
       <c r="A311" s="37" t="s">
         <v>796</v>
       </c>
@@ -15015,7 +15015,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="312" spans="1:11" ht="56">
+    <row r="312" spans="1:11" ht="57">
       <c r="A312" s="37" t="s">
         <v>800</v>
       </c>
@@ -15104,7 +15104,7 @@
       <c r="J314" s="29"/>
       <c r="K314" s="78"/>
     </row>
-    <row r="315" spans="1:11" ht="28">
+    <row r="315" spans="1:11" ht="28.5">
       <c r="A315" s="16"/>
       <c r="B315" s="16"/>
       <c r="C315" s="16"/>
@@ -15118,7 +15118,7 @@
       <c r="G315" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="H315" s="100" t="s">
+      <c r="H315" s="98" t="s">
         <v>1174</v>
       </c>
       <c r="I315" s="30"/>
@@ -15129,7 +15129,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="316" spans="1:11" ht="28">
+    <row r="316" spans="1:11" ht="28.5">
       <c r="A316" s="16"/>
       <c r="B316" s="16"/>
       <c r="C316" s="16"/>
@@ -15143,7 +15143,7 @@
       <c r="G316" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="H316" s="108"/>
+      <c r="H316" s="99"/>
       <c r="I316" s="30"/>
       <c r="J316" s="29" t="s">
         <v>28</v>
@@ -15152,7 +15152,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="317" spans="1:11" ht="28">
+    <row r="317" spans="1:11" ht="28.5">
       <c r="A317" s="16"/>
       <c r="B317" s="16"/>
       <c r="C317" s="16"/>
@@ -15166,7 +15166,7 @@
       <c r="G317" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="H317" s="108"/>
+      <c r="H317" s="99"/>
       <c r="I317" s="30"/>
       <c r="J317" s="29" t="s">
         <v>28</v>
@@ -15175,7 +15175,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="318" spans="1:11" ht="28">
+    <row r="318" spans="1:11" ht="28.5">
       <c r="A318" s="16"/>
       <c r="B318" s="16"/>
       <c r="C318" s="16"/>
@@ -15189,7 +15189,7 @@
       <c r="G318" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="H318" s="108"/>
+      <c r="H318" s="99"/>
       <c r="I318" s="30"/>
       <c r="J318" s="29" t="s">
         <v>28</v>
@@ -15198,7 +15198,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="319" spans="1:11" ht="28">
+    <row r="319" spans="1:11" ht="28.5">
       <c r="A319" s="16"/>
       <c r="B319" s="16"/>
       <c r="C319" s="16"/>
@@ -15212,7 +15212,7 @@
       <c r="G319" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="H319" s="108"/>
+      <c r="H319" s="99"/>
       <c r="I319" s="30"/>
       <c r="J319" s="29" t="s">
         <v>28</v>
@@ -15221,7 +15221,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="320" spans="1:11" ht="28">
+    <row r="320" spans="1:11" ht="28.5">
       <c r="A320" s="16"/>
       <c r="B320" s="16"/>
       <c r="C320" s="16"/>
@@ -15235,7 +15235,7 @@
       <c r="G320" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="H320" s="108"/>
+      <c r="H320" s="99"/>
       <c r="I320" s="30"/>
       <c r="J320" s="29" t="s">
         <v>28</v>
@@ -15244,7 +15244,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="321" spans="1:11" ht="28">
+    <row r="321" spans="1:11" ht="28.5">
       <c r="A321" s="16"/>
       <c r="B321" s="16"/>
       <c r="C321" s="16"/>
@@ -15258,7 +15258,7 @@
       <c r="G321" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="H321" s="108"/>
+      <c r="H321" s="99"/>
       <c r="I321" s="30"/>
       <c r="J321" s="29" t="s">
         <v>28</v>
@@ -15267,7 +15267,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="322" spans="1:11" ht="28">
+    <row r="322" spans="1:11" ht="28.5">
       <c r="A322" s="47"/>
       <c r="B322" s="47"/>
       <c r="C322" s="47"/>
@@ -15281,7 +15281,7 @@
       <c r="G322" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="H322" s="101"/>
+      <c r="H322" s="100"/>
       <c r="I322" s="47"/>
       <c r="J322" s="47" t="s">
         <v>28</v>
@@ -15442,7 +15442,7 @@
       <c r="J330" s="82"/>
       <c r="K330" s="89"/>
     </row>
-    <row r="331" spans="1:11" ht="28">
+    <row r="331" spans="1:11" ht="28.5">
       <c r="A331" s="82"/>
       <c r="B331" s="82"/>
       <c r="C331" s="82"/>
@@ -15462,21 +15462,21 @@
       <c r="K331" s="89"/>
     </row>
     <row r="332" spans="1:11">
-      <c r="A332" s="124" t="s">
+      <c r="A332" s="110" t="s">
         <v>812</v>
       </c>
-      <c r="B332" s="125"/>
-      <c r="C332" s="125"/>
-      <c r="D332" s="125"/>
-      <c r="E332" s="125"/>
-      <c r="F332" s="125"/>
-      <c r="G332" s="125"/>
-      <c r="H332" s="125"/>
-      <c r="I332" s="125"/>
-      <c r="J332" s="125"/>
-      <c r="K332" s="126"/>
-    </row>
-    <row r="333" spans="1:11" ht="70">
+      <c r="B332" s="111"/>
+      <c r="C332" s="111"/>
+      <c r="D332" s="111"/>
+      <c r="E332" s="111"/>
+      <c r="F332" s="111"/>
+      <c r="G332" s="111"/>
+      <c r="H332" s="111"/>
+      <c r="I332" s="111"/>
+      <c r="J332" s="111"/>
+      <c r="K332" s="112"/>
+    </row>
+    <row r="333" spans="1:11" ht="71.25">
       <c r="A333" s="87" t="s">
         <v>813</v>
       </c>
@@ -15507,7 +15507,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="334" spans="1:11" ht="70">
+    <row r="334" spans="1:11" ht="71.25">
       <c r="A334" s="87" t="s">
         <v>819</v>
       </c>
@@ -15538,7 +15538,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="335" spans="1:11" ht="70">
+    <row r="335" spans="1:11" ht="71.25">
       <c r="A335" s="87" t="s">
         <v>822</v>
       </c>
@@ -15569,7 +15569,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="336" spans="1:11" ht="70">
+    <row r="336" spans="1:11" ht="71.25">
       <c r="A336" s="87" t="s">
         <v>825</v>
       </c>
@@ -15600,7 +15600,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="337" spans="1:11" ht="70">
+    <row r="337" spans="1:11" ht="71.25">
       <c r="A337" s="87" t="s">
         <v>828</v>
       </c>
@@ -15631,7 +15631,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="338" spans="1:11" ht="70">
+    <row r="338" spans="1:11" ht="71.25">
       <c r="A338" s="87" t="s">
         <v>831</v>
       </c>
@@ -15662,7 +15662,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="339" spans="1:11" ht="70">
+    <row r="339" spans="1:11" ht="71.25">
       <c r="A339" s="87" t="s">
         <v>834</v>
       </c>
@@ -15693,7 +15693,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="340" spans="1:11" ht="70">
+    <row r="340" spans="1:11" ht="71.25">
       <c r="A340" s="87" t="s">
         <v>837</v>
       </c>
@@ -15724,7 +15724,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="341" spans="1:11" ht="70">
+    <row r="341" spans="1:11" ht="71.25">
       <c r="A341" s="55" t="s">
         <v>840</v>
       </c>
@@ -15755,7 +15755,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="342" spans="1:11" ht="112">
+    <row r="342" spans="1:11" ht="114">
       <c r="A342" s="55" t="s">
         <v>843</v>
       </c>
@@ -15788,7 +15788,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="343" spans="1:11" ht="126">
+    <row r="343" spans="1:11" ht="128.25">
       <c r="A343" s="55" t="s">
         <v>845</v>
       </c>
@@ -15821,7 +15821,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="344" spans="1:11" ht="98">
+    <row r="344" spans="1:11" ht="99.75">
       <c r="A344" s="55" t="s">
         <v>848</v>
       </c>
@@ -15854,7 +15854,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="345" spans="1:11" ht="84">
+    <row r="345" spans="1:11" ht="85.5">
       <c r="A345" s="55" t="s">
         <v>851</v>
       </c>
@@ -15887,7 +15887,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="346" spans="1:11" ht="126">
+    <row r="346" spans="1:11" ht="128.25">
       <c r="A346" s="55" t="s">
         <v>854</v>
       </c>
@@ -15921,21 +15921,21 @@
       </c>
     </row>
     <row r="347" spans="1:11" ht="42.75" customHeight="1">
-      <c r="A347" s="124" t="s">
+      <c r="A347" s="110" t="s">
         <v>1247</v>
       </c>
-      <c r="B347" s="125"/>
-      <c r="C347" s="125"/>
-      <c r="D347" s="125"/>
-      <c r="E347" s="125"/>
-      <c r="F347" s="125"/>
-      <c r="G347" s="125"/>
-      <c r="H347" s="125"/>
-      <c r="I347" s="125"/>
-      <c r="J347" s="125"/>
-      <c r="K347" s="126"/>
-    </row>
-    <row r="348" spans="1:11" ht="84">
+      <c r="B347" s="111"/>
+      <c r="C347" s="111"/>
+      <c r="D347" s="111"/>
+      <c r="E347" s="111"/>
+      <c r="F347" s="111"/>
+      <c r="G347" s="111"/>
+      <c r="H347" s="111"/>
+      <c r="I347" s="111"/>
+      <c r="J347" s="111"/>
+      <c r="K347" s="112"/>
+    </row>
+    <row r="348" spans="1:11" ht="85.5">
       <c r="A348" s="55" t="s">
         <v>1246</v>
       </c>
@@ -15966,7 +15966,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="349" spans="1:11" ht="84">
+    <row r="349" spans="1:11" ht="85.5">
       <c r="A349" s="55" t="s">
         <v>861</v>
       </c>
@@ -15997,7 +15997,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="350" spans="1:11" ht="84">
+    <row r="350" spans="1:11" ht="85.5">
       <c r="A350" s="55" t="s">
         <v>864</v>
       </c>
@@ -16028,7 +16028,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="351" spans="1:11" ht="84">
+    <row r="351" spans="1:11" ht="85.5">
       <c r="A351" s="55" t="s">
         <v>867</v>
       </c>
@@ -16060,21 +16060,21 @@
       </c>
     </row>
     <row r="352" spans="1:11" ht="42.75" customHeight="1">
-      <c r="A352" s="127" t="s">
+      <c r="A352" s="113" t="s">
         <v>1191</v>
       </c>
-      <c r="B352" s="128"/>
-      <c r="C352" s="128"/>
-      <c r="D352" s="128"/>
-      <c r="E352" s="128"/>
-      <c r="F352" s="128"/>
-      <c r="G352" s="128"/>
-      <c r="H352" s="128"/>
-      <c r="I352" s="128"/>
-      <c r="J352" s="128"/>
-      <c r="K352" s="129"/>
-    </row>
-    <row r="353" spans="1:11" ht="70">
+      <c r="B352" s="114"/>
+      <c r="C352" s="114"/>
+      <c r="D352" s="114"/>
+      <c r="E352" s="114"/>
+      <c r="F352" s="114"/>
+      <c r="G352" s="114"/>
+      <c r="H352" s="114"/>
+      <c r="I352" s="114"/>
+      <c r="J352" s="114"/>
+      <c r="K352" s="115"/>
+    </row>
+    <row r="353" spans="1:11" ht="71.25">
       <c r="A353" s="53" t="s">
         <v>1190</v>
       </c>
@@ -16107,7 +16107,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="354" spans="1:11" ht="70">
+    <row r="354" spans="1:11" ht="71.25">
       <c r="A354" s="53" t="s">
         <v>873</v>
       </c>
@@ -16140,7 +16140,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="355" spans="1:11" ht="56">
+    <row r="355" spans="1:11" ht="57">
       <c r="A355" s="53" t="s">
         <v>875</v>
       </c>
@@ -16173,7 +16173,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="356" spans="1:11" ht="56">
+    <row r="356" spans="1:11" ht="57">
       <c r="A356" s="54" t="s">
         <v>877</v>
       </c>
@@ -16204,7 +16204,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="357" spans="1:11" ht="56">
+    <row r="357" spans="1:11" ht="57">
       <c r="A357" s="54" t="s">
         <v>883</v>
       </c>
@@ -16235,7 +16235,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="358" spans="1:11" ht="42">
+    <row r="358" spans="1:11" ht="42.75">
       <c r="A358" s="54" t="s">
         <v>887</v>
       </c>
@@ -16266,7 +16266,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="359" spans="1:11" ht="98">
+    <row r="359" spans="1:11" ht="99.75">
       <c r="A359" s="54" t="s">
         <v>891</v>
       </c>
@@ -16307,7 +16307,7 @@
       <c r="G360" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H360" s="100" t="s">
+      <c r="H360" s="98" t="s">
         <v>1199</v>
       </c>
       <c r="I360" s="30"/>
@@ -16318,7 +16318,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="361" spans="1:11" ht="28">
+    <row r="361" spans="1:11" ht="28.5">
       <c r="A361" s="16"/>
       <c r="B361" s="16"/>
       <c r="C361" s="16"/>
@@ -16332,7 +16332,7 @@
       <c r="G361" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H361" s="108"/>
+      <c r="H361" s="99"/>
       <c r="I361" s="30"/>
       <c r="J361" s="29" t="s">
         <v>28</v>
@@ -16341,7 +16341,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="362" spans="1:11" ht="28">
+    <row r="362" spans="1:11" ht="28.5">
       <c r="A362" s="16"/>
       <c r="B362" s="16"/>
       <c r="C362" s="16"/>
@@ -16355,7 +16355,7 @@
       <c r="G362" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H362" s="108"/>
+      <c r="H362" s="99"/>
       <c r="I362" s="30"/>
       <c r="J362" s="29" t="s">
         <v>28</v>
@@ -16364,7 +16364,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="363" spans="1:11" ht="28">
+    <row r="363" spans="1:11" ht="28.5">
       <c r="A363" s="16"/>
       <c r="B363" s="16"/>
       <c r="C363" s="16"/>
@@ -16378,7 +16378,7 @@
       <c r="G363" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H363" s="108"/>
+      <c r="H363" s="99"/>
       <c r="I363" s="30"/>
       <c r="J363" s="29" t="s">
         <v>28</v>
@@ -16387,7 +16387,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="364" spans="1:11" ht="28">
+    <row r="364" spans="1:11" ht="28.5">
       <c r="A364" s="16"/>
       <c r="B364" s="16"/>
       <c r="C364" s="16"/>
@@ -16401,7 +16401,7 @@
       <c r="G364" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H364" s="108"/>
+      <c r="H364" s="99"/>
       <c r="I364" s="30"/>
       <c r="J364" s="29" t="s">
         <v>28</v>
@@ -16410,7 +16410,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="365" spans="1:11" ht="28">
+    <row r="365" spans="1:11" ht="28.5">
       <c r="A365" s="59"/>
       <c r="B365" s="16"/>
       <c r="C365" s="52"/>
@@ -16424,7 +16424,7 @@
       <c r="G365" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H365" s="101"/>
+      <c r="H365" s="100"/>
       <c r="I365" s="30"/>
       <c r="J365" s="29" t="s">
         <v>28</v>
@@ -16433,7 +16433,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="366" spans="1:11" ht="84">
+    <row r="366" spans="1:11" ht="86.25">
       <c r="A366" s="54" t="s">
         <v>902</v>
       </c>
@@ -16462,7 +16462,7 @@
       </c>
       <c r="K366" s="78"/>
     </row>
-    <row r="367" spans="1:11" ht="56">
+    <row r="367" spans="1:11" ht="57">
       <c r="A367" s="54" t="s">
         <v>903</v>
       </c>
@@ -16493,7 +16493,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="368" spans="1:11" ht="28">
+    <row r="368" spans="1:11" ht="28.5">
       <c r="A368" s="54" t="s">
         <v>908</v>
       </c>
@@ -16524,7 +16524,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="369" spans="1:11" ht="56">
+    <row r="369" spans="1:11" ht="71.25">
       <c r="A369" s="27" t="s">
         <v>912</v>
       </c>
@@ -16555,7 +16555,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="370" spans="1:11" ht="46.5">
+    <row r="370" spans="1:11" ht="47.25">
       <c r="A370" s="71" t="s">
         <v>1205</v>
       </c>
@@ -16586,7 +16586,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="371" spans="1:11" ht="70">
+    <row r="371" spans="1:11" ht="71.25">
       <c r="A371" s="71" t="s">
         <v>1204</v>
       </c>
@@ -16617,7 +16617,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="372" spans="1:11" ht="70">
+    <row r="372" spans="1:11" ht="71.25">
       <c r="A372" s="71" t="s">
         <v>1203</v>
       </c>
@@ -16648,7 +16648,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="373" spans="1:11" ht="70">
+    <row r="373" spans="1:11" ht="71.25">
       <c r="A373" s="71" t="s">
         <v>1202</v>
       </c>
@@ -16679,7 +16679,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="374" spans="1:11" ht="70">
+    <row r="374" spans="1:11" ht="71.25">
       <c r="A374" s="71" t="s">
         <v>1201</v>
       </c>
@@ -16728,22 +16728,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="H360:H365"/>
-    <mergeCell ref="H315:H322"/>
-    <mergeCell ref="H293:H300"/>
-    <mergeCell ref="A280:K280"/>
-    <mergeCell ref="A302:K302"/>
-    <mergeCell ref="A306:K306"/>
-    <mergeCell ref="A332:K332"/>
-    <mergeCell ref="A352:K352"/>
-    <mergeCell ref="A347:K347"/>
-    <mergeCell ref="H268:H278"/>
-    <mergeCell ref="H251:H259"/>
-    <mergeCell ref="H227:H235"/>
-    <mergeCell ref="K16:K28"/>
-    <mergeCell ref="K32:K36"/>
-    <mergeCell ref="H108:H115"/>
-    <mergeCell ref="H85:H92"/>
     <mergeCell ref="H5:H8"/>
     <mergeCell ref="H145:H146"/>
     <mergeCell ref="A261:K261"/>
@@ -16754,6 +16738,22 @@
     <mergeCell ref="A161:K161"/>
     <mergeCell ref="A149:K149"/>
     <mergeCell ref="H16:H28"/>
+    <mergeCell ref="H268:H278"/>
+    <mergeCell ref="H251:H259"/>
+    <mergeCell ref="H227:H235"/>
+    <mergeCell ref="K16:K28"/>
+    <mergeCell ref="K32:K36"/>
+    <mergeCell ref="H108:H115"/>
+    <mergeCell ref="H85:H92"/>
+    <mergeCell ref="H360:H365"/>
+    <mergeCell ref="H315:H322"/>
+    <mergeCell ref="H293:H300"/>
+    <mergeCell ref="A280:K280"/>
+    <mergeCell ref="A302:K302"/>
+    <mergeCell ref="A306:K306"/>
+    <mergeCell ref="A332:K332"/>
+    <mergeCell ref="A352:K352"/>
+    <mergeCell ref="A347:K347"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16778,7 +16778,7 @@
       <selection activeCell="O114" sqref="O114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -66380,17 +66380,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7C26DD-F985-D14B-89A5-BE770557894F}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="38.83203125" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="46.25" customWidth="1"/>
+    <col min="2" max="2" width="30.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.5" thickBot="1">
+    <row r="1" spans="1:5" ht="39.75" thickBot="1">
       <c r="A1" s="92" t="s">
         <v>1347</v>
       </c>
@@ -66407,7 +66407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.5" thickTop="1">
+    <row r="2" spans="1:5" ht="18.75" thickTop="1">
       <c r="A2" s="94" t="s">
         <v>1348</v>
       </c>
@@ -66418,7 +66418,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="78">
+    <row r="3" spans="1:5" ht="94.5">
       <c r="A3" s="94" t="s">
         <v>1349</v>
       </c>
@@ -66583,7 +66583,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="124.5">
+    <row r="18" spans="1:4" ht="126">
       <c r="A18" s="94" t="s">
         <v>1362</v>
       </c>
@@ -66594,7 +66594,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="47">
+    <row r="19" spans="1:4" ht="47.25">
       <c r="A19" s="94" t="s">
         <v>1363</v>
       </c>
@@ -66652,7 +66652,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="62.5">
+    <row r="25" spans="1:4" ht="63">
       <c r="A25" s="94" t="s">
         <v>1369</v>
       </c>
@@ -66811,7 +66811,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="93.5">
+    <row r="40" spans="1:4" ht="94.5">
       <c r="A40" s="94" t="s">
         <v>1383</v>
       </c>
